--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(全体仕様).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(全体仕様).xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPB-036\Desktop\java研修\演習2\要件定義書\1.ショッピングサイト\05_内部仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB912ED-BFA4-48FE-9C72-B06AA3882076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16635" yWindow="3060" windowWidth="14700" windowHeight="8970" xr2:uid="{CCF76CFB-D2A0-4814-B888-2440D70E4E7F}"/>
+    <workbookView xWindow="-16635" yWindow="3060" windowWidth="14700" windowHeight="8970"/>
   </bookViews>
   <sheets>
-    <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="全体仕様" sheetId="2" r:id="rId2"/>
+    <sheet name="全体仕様" sheetId="3" r:id="rId1"/>
+    <sheet name="変更履歴" sheetId="1" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">全体仕様!$A$1:$I$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">全体仕様!$A$1:$U$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -113,24 +115,93 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.クラス図</t>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
+    <t>1対多</t>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.アクティビティ図</t>
-    <rPh sb="9" eb="10">
-      <t>ズ</t>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserForm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attendance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebSecurity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommnController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@EnableWebSecurity</t>
+  </si>
+  <si>
+    <t>AttendanceService</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠情報の登録処理をする</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイジョウホウ</t>
     </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請の処理をする、DBへの反映、</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HomeController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ApplyService</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,6 +369,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -306,15 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,10 +428,10 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>917121</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>201930</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -375,7 +446,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1047"/>
+                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s2055"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -390,7 +461,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="685800"/>
+              <a:ext cx="6079671" cy="666750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -412,7 +483,2132 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>525338</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>235118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>661910</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>198922</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA6E8C1-05E7-4454-8406-DEF16DC54CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3001838" y="1936011"/>
+          <a:ext cx="1497286" cy="1433375"/>
+          <a:chOff x="453162" y="1602933"/>
+          <a:chExt cx="1490186" cy="1355283"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539CE790-6A03-4ED9-B82A-57C4784309EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="457366" y="1602933"/>
+            <a:ext cx="1484077" cy="355241"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>username</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> PK</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AD7482-0CBD-4D2C-B86A-F70699556445}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="453162" y="1954363"/>
+            <a:ext cx="1490186" cy="1003853"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>553054</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>227018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC150B9-D88F-4839-9ACD-DDFD799AF403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686779" y="3313118"/>
+          <a:ext cx="4839" cy="718678"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175967</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>237224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327510</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>192746</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E170987-1448-457B-8B03-3F51203541CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="611396" y="1938117"/>
+          <a:ext cx="1512257" cy="1425093"/>
+          <a:chOff x="448132" y="1594915"/>
+          <a:chExt cx="1485186" cy="1352125"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6831ABF-4FE4-407E-842E-00264236B41D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="466058" y="1594915"/>
+            <a:ext cx="1467260" cy="356515"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10586130-AA88-4C0C-A2B9-9E03B033A8BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="448132" y="1939587"/>
+            <a:ext cx="1478921" cy="1007453"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>username</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>password</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>340519</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41662</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>70898</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DA6E8C1-05E7-4454-8406-DEF16DC54CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="340519" y="4012344"/>
+          <a:ext cx="1497286" cy="1433375"/>
+          <a:chOff x="453162" y="1602933"/>
+          <a:chExt cx="1490186" cy="1355283"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539CE790-6A03-4ED9-B82A-57C4784309EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="457366" y="1602933"/>
+            <a:ext cx="1484077" cy="355241"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>username PK</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AD7482-0CBD-4D2C-B86A-F70699556445}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="453162" y="1954363"/>
+            <a:ext cx="1490186" cy="1003853"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>password</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>enable </a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>669956</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>214950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC150B9-D88F-4839-9ACD-DDFD799AF403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4479956" y="2622177"/>
+          <a:ext cx="2551226" cy="1239778"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>598143</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>235805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>62959</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E170987-1448-457B-8B03-3F51203541CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3074643" y="4385984"/>
+          <a:ext cx="1505887" cy="1831297"/>
+          <a:chOff x="464427" y="1635006"/>
+          <a:chExt cx="1478921" cy="1591875"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6831ABF-4FE4-407E-842E-00264236B41D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="466058" y="1635006"/>
+            <a:ext cx="1467260" cy="356515"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10586130-AA88-4C0C-A2B9-9E03B033A8BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="464427" y="1955623"/>
+            <a:ext cx="1478921" cy="1271258"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>startWork</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>endWork Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>startBreak Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>endBreak Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>year</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Integer</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>month</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>user_id FK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>date Integer</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>866823</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>225889</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42920</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E170987-1448-457B-8B03-3F51203541CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6064752" y="3905250"/>
+          <a:ext cx="2339030" cy="2002349"/>
+          <a:chOff x="464427" y="1557222"/>
+          <a:chExt cx="1760952" cy="1860034"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6831ABF-4FE4-407E-842E-00264236B41D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="466058" y="1557222"/>
+            <a:ext cx="1735146" cy="450549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10586130-AA88-4C0C-A2B9-9E03B033A8BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="464427" y="1955622"/>
+            <a:ext cx="1760952" cy="1461634"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>attendance_id</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> FK(date,year,month</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>は</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Attendance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>から取得</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>user_id FK</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ceated_time(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>申請した時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624434</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>211488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>866823</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>232665</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC150B9-D88F-4839-9ACD-DDFD799AF403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4434434" y="5043261"/>
+          <a:ext cx="1593207" cy="21177"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>525338</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>235118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>655772</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539CE790-6A03-4ED9-B82A-57C4784309EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2982788" y="1892468"/>
+          <a:ext cx="1482984" cy="362103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>username</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> PK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>32162</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>380365</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157362</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AD7482-0CBD-4D2C-B86A-F70699556445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10251126" y="3415396"/>
+          <a:ext cx="1708918" cy="1382002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>currentUser();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>常に現在のユーザーを返してくれる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2596</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AD7482-0CBD-4D2C-B86A-F70699556445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7479721" y="1647827"/>
+          <a:ext cx="2626304" cy="1419223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アクセス制限（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>login/new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のみ可）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>h2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コンソール、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HTML,CSS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>は無視して通す</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UserDetailsManager</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>237261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AD7482-0CBD-4D2C-B86A-F70699556445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="7133361"/>
+          <a:ext cx="2600325" cy="2115413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>勤怠情報を登録する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>create();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>勤怠情報を編集する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>edit();</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>479712</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AD7482-0CBD-4D2C-B86A-F70699556445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6585237" y="7440758"/>
+          <a:ext cx="3082638" cy="1731817"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>申請情報を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に保存する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>apply();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657348</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>330637</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AD7482-0CBD-4D2C-B86A-F70699556445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10195955" y="5884844"/>
+          <a:ext cx="1714361" cy="1382002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>34142</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>387788</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>223789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AD7482-0CBD-4D2C-B86A-F70699556445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10933463" y="8380394"/>
+          <a:ext cx="1714361" cy="1382002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>login</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>get,post</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メゾット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>new</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>get,post</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メゾット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="変更履歴"/>
+      <sheetName val="ER図"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -711,21 +2907,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B729E61E-B949-41F9-8A89-4E73CECF64D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="P14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="P24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -742,7 +3038,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -753,264 +3049,294 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1018,72 +3344,9 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C20FC5-7AE7-48A7-98CD-9081647BBD6C}">
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="8" width="8.8984375" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
 </file>
--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(全体仕様).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(全体仕様).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="全体仕様" sheetId="3" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">全体仕様!$A$1:$U$58</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -137,10 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Attendance</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Apply</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -195,6 +192,106 @@
   </si>
   <si>
     <t>ApplyService</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpringUserService</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserService</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多対1</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大地</t>
+    <rPh sb="0" eb="2">
+      <t>ダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startWork</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endWork</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startBreak</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>endBreake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apply findByUserAndYearAndMonth(User user,Integer year,Integer month)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attendance findByUserAndYearAndMonth(User user,Integer year,Integer month)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AttendanceDetails</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apply apply ＝Apply findByUserAndYearAndMonth(User user,Integer year,Integer month)；</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古俣</t>
+    <rPh sb="0" eb="2">
+      <t>コマタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -347,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +466,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -377,15 +483,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +495,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,7 +546,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s2055"/>
+                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s2077"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -486,13 +586,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>525338</xdr:colOff>
+      <xdr:colOff>484516</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>235118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>661910</xdr:colOff>
+      <xdr:colOff>621088</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>198922</xdr:rowOff>
     </xdr:to>
@@ -509,7 +609,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3001838" y="1936011"/>
+          <a:off x="2961016" y="1936011"/>
           <a:ext cx="1497286" cy="1433375"/>
           <a:chOff x="453162" y="1602933"/>
           <a:chExt cx="1490186" cy="1355283"/>
@@ -716,16 +816,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>175967</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>407287</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>237224</xdr:rowOff>
+      <xdr:rowOff>73939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>327510</xdr:colOff>
+      <xdr:colOff>136071</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>192746</xdr:rowOff>
+      <xdr:rowOff>29461</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -740,10 +840,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="611396" y="1938117"/>
-          <a:ext cx="1512257" cy="1425093"/>
-          <a:chOff x="448132" y="1594915"/>
-          <a:chExt cx="1485186" cy="1352125"/>
+          <a:off x="407287" y="1774832"/>
+          <a:ext cx="1524927" cy="1425093"/>
+          <a:chOff x="408041" y="1594915"/>
+          <a:chExt cx="1497629" cy="1352125"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -759,8 +859,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="466058" y="1594915"/>
-            <a:ext cx="1467260" cy="356515"/>
+            <a:off x="435680" y="1594915"/>
+            <a:ext cx="1469990" cy="356515"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -816,7 +916,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="448132" y="1939587"/>
+            <a:off x="408041" y="1939587"/>
             <a:ext cx="1478921" cy="1007453"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -888,15 +988,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>340519</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107094</xdr:rowOff>
+      <xdr:colOff>286091</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>111177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>41662</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>70898</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>679285</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>84505</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -911,10 +1011,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="340519" y="4012344"/>
-          <a:ext cx="1497286" cy="1433375"/>
+          <a:off x="286091" y="3281641"/>
+          <a:ext cx="1508980" cy="1442900"/>
           <a:chOff x="453162" y="1602933"/>
-          <a:chExt cx="1490186" cy="1355283"/>
+          <a:chExt cx="1501824" cy="1355283"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -930,7 +1030,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="457366" y="1602933"/>
+            <a:off x="470909" y="1602933"/>
             <a:ext cx="1484077" cy="355241"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1128,14 +1228,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>598143</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>235805</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>62959</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:colOff>241788</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>205153</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1150,8 +1250,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3074643" y="4385984"/>
-          <a:ext cx="1505887" cy="1831297"/>
+          <a:off x="3074643" y="4481234"/>
+          <a:ext cx="1684716" cy="2323383"/>
           <a:chOff x="464427" y="1635006"/>
           <a:chExt cx="1478921" cy="1591875"/>
         </a:xfrm>
@@ -1331,62 +1431,57 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
+              <a:t>user_id FK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>apply_id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>year</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> Integer</a:t>
+              <a:t>month</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>date </a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>month</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> Integer</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>user_id FK</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>date Integer</a:t>
-            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1396,15 +1491,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>866823</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>853215</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>225889</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>42920</xdr:rowOff>
+      <xdr:colOff>212281</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1419,10 +1514,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6064752" y="3905250"/>
-          <a:ext cx="2339030" cy="2002349"/>
-          <a:chOff x="464427" y="1557222"/>
-          <a:chExt cx="1760952" cy="1860034"/>
+          <a:off x="6051144" y="3864428"/>
+          <a:ext cx="2339030" cy="2381251"/>
+          <a:chOff x="443938" y="1557222"/>
+          <a:chExt cx="1760952" cy="2212005"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1506,8 +1601,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="464427" y="1955622"/>
-            <a:ext cx="1760952" cy="1461634"/>
+            <a:off x="443938" y="2006184"/>
+            <a:ext cx="1760952" cy="1763043"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1543,104 +1638,186 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>List&lt;Attendance&gt; attendances;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>user_id FK</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>attendance_id</a:t>
+              <a:t>year</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>month</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>day</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>startWork</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>endWork</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>startBreak</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>endBreak</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>startWork</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> FK(date,year,month</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>は</a:t>
-            </a:r>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> Integer</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Attendance</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>から取得</a:t>
-            </a:r>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>endWork Integer</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>startBreak Integer</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>user_id FK</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>endBreak Integer</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
             </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ceated_time(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>申請した時間</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -1658,15 +1835,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>624434</xdr:colOff>
+      <xdr:colOff>610827</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>211488</xdr:rowOff>
+      <xdr:rowOff>225096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>866823</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>232665</xdr:rowOff>
+      <xdr:colOff>853215</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166817</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1683,8 +1860,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4434434" y="5043261"/>
-          <a:ext cx="1593207" cy="21177"/>
+          <a:off x="4448041" y="5110060"/>
+          <a:ext cx="1603103" cy="186650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1715,13 +1892,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>525338</xdr:colOff>
+      <xdr:colOff>498124</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>235118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>655772</xdr:colOff>
+      <xdr:colOff>628558</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>120971</xdr:rowOff>
     </xdr:to>
@@ -1738,8 +1915,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2982788" y="1892468"/>
-          <a:ext cx="1482984" cy="362103"/>
+          <a:off x="2974624" y="1936011"/>
+          <a:ext cx="1491148" cy="375710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2110,15 +2287,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>237261</xdr:rowOff>
+      <xdr:colOff>654503</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:colOff>549728</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2133,8 +2310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3057525" y="7133361"/>
-          <a:ext cx="2600325" cy="2115413"/>
+          <a:off x="3131003" y="7394617"/>
+          <a:ext cx="2616654" cy="2176646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2249,15 +2426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>479712</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>68408</xdr:rowOff>
+      <xdr:colOff>71499</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>204480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>405494</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2272,8 +2449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6585237" y="7440758"/>
-          <a:ext cx="3082638" cy="1731817"/>
+          <a:off x="6208320" y="8273516"/>
+          <a:ext cx="3055424" cy="1265092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2346,11 +2523,19 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>apply();</a:t>
+            <a:t>createApply();</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>editApply();</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2364,15 +2549,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>657348</xdr:colOff>
+      <xdr:colOff>616526</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>20165</xdr:rowOff>
+      <xdr:rowOff>33772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>330637</xdr:colOff>
+      <xdr:colOff>289815</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>177525</xdr:rowOff>
+      <xdr:rowOff>191132</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2387,7 +2572,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10195955" y="5884844"/>
+          <a:off x="10155133" y="5898451"/>
           <a:ext cx="1714361" cy="1382002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2435,16 +2620,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>34142</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>632856</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>66430</xdr:rowOff>
+      <xdr:rowOff>52823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>387788</xdr:colOff>
+      <xdr:colOff>306145</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>223789</xdr:rowOff>
+      <xdr:rowOff>210182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2459,7 +2644,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10933463" y="8380394"/>
+          <a:off x="10851820" y="8366787"/>
           <a:ext cx="1714361" cy="1382002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2591,6 +2776,754 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>360572</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>221067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AD7482-0CBD-4D2C-B86A-F70699556445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="442354" y="6663172"/>
+          <a:ext cx="1714361" cy="1382002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390647</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>202500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>308865</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AD7482-0CBD-4D2C-B86A-F70699556445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390647" y="8761393"/>
+          <a:ext cx="1714361" cy="1382002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>455962</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AD7482-0CBD-4D2C-B86A-F70699556445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4293176" y="10541208"/>
+          <a:ext cx="5218217" cy="3147578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281630</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97349</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E170987-1448-457B-8B03-3F51203541CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1905000"/>
+          <a:ext cx="2339030" cy="2002349"/>
+          <a:chOff x="464427" y="1557222"/>
+          <a:chExt cx="1760952" cy="1860034"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6831ABF-4FE4-407E-842E-00264236B41D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="466058" y="1557222"/>
+            <a:ext cx="1735146" cy="450549"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10586130-AA88-4C0C-A2B9-9E03B033A8BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="464427" y="1955622"/>
+            <a:ext cx="1760952" cy="1461634"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>List&lt;Attendance&gt; attendances;</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>user_id FK</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ceated_time(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>申請した時間</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>applyYear</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>applyMonth</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>applyDate</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294066</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>237408</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E170987-1448-457B-8B03-3F51203541CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3409950" y="6248400"/>
+          <a:ext cx="1684716" cy="2323383"/>
+          <a:chOff x="464427" y="1635006"/>
+          <a:chExt cx="1478921" cy="1591875"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6831ABF-4FE4-407E-842E-00264236B41D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="466058" y="1635006"/>
+            <a:ext cx="1467260" cy="356515"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10586130-AA88-4C0C-A2B9-9E03B033A8BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="464427" y="1955623"/>
+            <a:ext cx="1478921" cy="1271258"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>startWork</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>endWork Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>startBreak Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>endBreak Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>year</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Integer</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>month</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>user_id FK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>date Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>apply_id</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2908,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q34"/>
+  <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2924,7 +3857,7 @@
     <row r="1" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:16" x14ac:dyDescent="0.4">
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.4">
@@ -2935,7 +3868,7 @@
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
@@ -2945,7 +3878,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.4">
       <c r="P14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.4">
@@ -2956,45 +3889,55 @@
         <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
       <c r="I20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
       <c r="P24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="6:16" x14ac:dyDescent="0.4">
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="6:16" x14ac:dyDescent="0.4">
-      <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="6:16" x14ac:dyDescent="0.4">
-      <c r="K31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="17:17" x14ac:dyDescent="0.4">
-      <c r="Q34" t="s">
-        <v>22</v>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3058,285 +4001,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -3344,9 +4257,492 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F16:Q40"/>
+  <sheetViews>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="16" spans="11:11" x14ac:dyDescent="0.4">
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="K18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20">
+        <v>2022</v>
+      </c>
+      <c r="I20">
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="N20" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>2022</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="17">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="M21" s="17">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="N21" s="17">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="O21" s="17">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22">
+        <v>2022</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="M22" s="17">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="N22" s="17">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="O22" s="17">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>2022</v>
+      </c>
+      <c r="I23">
+        <v>12</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>0</v>
+      </c>
+      <c r="N23" s="17">
+        <v>0</v>
+      </c>
+      <c r="O23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28">
+        <v>2022</v>
+      </c>
+      <c r="L28">
+        <v>12</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="O28" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="P28" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29">
+        <v>2022</v>
+      </c>
+      <c r="L29">
+        <v>12</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="O29" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="P29" s="17">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30">
+        <v>2022</v>
+      </c>
+      <c r="L30">
+        <v>12</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="O30" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="P30" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31">
+        <v>2022</v>
+      </c>
+      <c r="L31">
+        <v>12</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="O31" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="P31" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="32" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="I32">
+        <v>31</v>
+      </c>
+      <c r="J32" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32">
+        <v>2022</v>
+      </c>
+      <c r="L32">
+        <v>12</v>
+      </c>
+      <c r="M32">
+        <v>31</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="O32" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="P32" s="17">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33">
+        <v>2022</v>
+      </c>
+      <c r="L33">
+        <v>12</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34">
+        <v>2022</v>
+      </c>
+      <c r="L34">
+        <v>12</v>
+      </c>
+      <c r="M34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="J35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35">
+        <v>2022</v>
+      </c>
+      <c r="L35">
+        <v>11</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="K36">
+        <v>2022</v>
+      </c>
+      <c r="L36">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="K37">
+        <v>2022</v>
+      </c>
+      <c r="L37">
+        <v>11</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="L38">
+        <v>11</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="L39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="L40">
+        <v>11</v>
+      </c>
+      <c r="M40">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(全体仕様).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(全体仕様).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\AHKGitProject\3.勤怠管理アプリ\05_内部仕様書\クラス図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-16635" yWindow="3060" windowWidth="14700" windowHeight="8970"/>
+    <workbookView xWindow="-16632" yWindow="3060" windowWidth="14700" windowHeight="8976"/>
   </bookViews>
   <sheets>
     <sheet name="全体仕様" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">全体仕様!$A$1:$U$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -466,6 +466,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,9 +498,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,7 +546,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s2077"/>
+                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s2079"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -609,8 +609,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2961016" y="1936011"/>
-          <a:ext cx="1497286" cy="1433375"/>
+          <a:off x="2933802" y="1827698"/>
+          <a:ext cx="1486400" cy="1343024"/>
           <a:chOff x="453162" y="1602933"/>
           <a:chExt cx="1490186" cy="1355283"/>
         </a:xfrm>
@@ -840,8 +840,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="407287" y="1774832"/>
-          <a:ext cx="1524927" cy="1425093"/>
+          <a:off x="407287" y="1674139"/>
+          <a:ext cx="1503155" cy="1327122"/>
           <a:chOff x="408041" y="1594915"/>
           <a:chExt cx="1497629" cy="1352125"/>
         </a:xfrm>
@@ -1011,8 +1011,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="286091" y="3281641"/>
-          <a:ext cx="1508980" cy="1442900"/>
+          <a:off x="286091" y="3082977"/>
+          <a:ext cx="1492651" cy="1344928"/>
           <a:chOff x="453162" y="1602933"/>
           <a:chExt cx="1501824" cy="1355283"/>
         </a:xfrm>
@@ -1234,8 +1234,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>241788</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>205153</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1250,8 +1250,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3074643" y="4481234"/>
-          <a:ext cx="1684716" cy="2323383"/>
+          <a:off x="3047429" y="4200927"/>
+          <a:ext cx="1668388" cy="2330502"/>
           <a:chOff x="464427" y="1635006"/>
           <a:chExt cx="1478921" cy="1591875"/>
         </a:xfrm>
@@ -1477,6 +1477,17 @@
               </a:rPr>
               <a:t>date </a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>status</a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -1498,8 +1509,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>212281</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1514,8 +1525,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6051144" y="3864428"/>
-          <a:ext cx="2339030" cy="2381251"/>
+          <a:off x="6002158" y="3633107"/>
+          <a:ext cx="2330866" cy="2528207"/>
           <a:chOff x="443938" y="1557222"/>
           <a:chExt cx="1760952" cy="2212005"/>
         </a:xfrm>
@@ -1692,7 +1703,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>day</a:t>
+              <a:t>date</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1740,6 +1751,19 @@
             </a:r>
           </a:p>
           <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>status</a:t>
+            </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
                 <a:solidFill>
@@ -1842,8 +1866,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>853215</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>166817</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>124581</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1860,8 +1884,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4448041" y="5110060"/>
-          <a:ext cx="1603103" cy="186650"/>
+          <a:off x="4409941" y="4797096"/>
+          <a:ext cx="1592217" cy="356685"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3843,24 +3867,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="2" max="8" width="8.8984375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="L6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -3871,17 +3895,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="J13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="P14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -3892,42 +3916,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
       <c r="P24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.45">
       <c r="J34" t="s">
         <v>19</v>
       </c>
@@ -3935,7 +3959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -3955,23 +3979,23 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3981,271 +4005,271 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
@@ -4302,19 +4326,19 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="16" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="6:17" x14ac:dyDescent="0.45">
       <c r="K18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="6:17" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
         <v>26</v>
       </c>
@@ -4346,7 +4370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="6:17" x14ac:dyDescent="0.45">
       <c r="F20">
         <v>1</v>
       </c>
@@ -4365,20 +4389,20 @@
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="7">
         <v>0.375</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="7">
         <v>0.75</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="7">
         <v>0.5</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="7">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="6:17" x14ac:dyDescent="0.45">
       <c r="F21">
         <v>2</v>
       </c>
@@ -4397,20 +4421,20 @@
       <c r="K21" t="b">
         <v>1</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="7">
         <v>0.41666666666666702</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="7">
         <v>0.79166666666666696</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="7">
         <v>0.54166666666666696</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="7">
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="6:17" x14ac:dyDescent="0.45">
       <c r="G22" t="s">
         <v>28</v>
       </c>
@@ -4426,20 +4450,20 @@
       <c r="K22" t="b">
         <v>1</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="7">
         <v>0.45833333333333298</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="7">
         <v>0.83333333333333304</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="7">
         <v>0.58333333333333304</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="7">
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="6:17" x14ac:dyDescent="0.45">
       <c r="G23" t="s">
         <v>28</v>
       </c>
@@ -4455,25 +4479,25 @@
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="7">
         <v>0</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="7">
         <v>0</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="6:17" x14ac:dyDescent="0.45">
       <c r="F24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="6:17" x14ac:dyDescent="0.45">
       <c r="F25">
         <v>3</v>
       </c>
@@ -4481,7 +4505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="6:17" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
         <v>26</v>
       </c>
@@ -4510,7 +4534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="6:17" x14ac:dyDescent="0.45">
       <c r="I28">
         <v>1</v>
       </c>
@@ -4526,20 +4550,20 @@
       <c r="M28">
         <v>1</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="7">
         <v>0.375</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O28" s="7">
         <v>0.75</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="7">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="6:17" x14ac:dyDescent="0.45">
       <c r="I29">
         <v>2</v>
       </c>
@@ -4555,20 +4579,20 @@
       <c r="M29">
         <v>2</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="7">
         <v>0.375</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O29" s="7">
         <v>0.75</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="7">
         <v>0.50694444444444442</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="7">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="30" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="6:17" x14ac:dyDescent="0.45">
       <c r="I30">
         <v>3</v>
       </c>
@@ -4584,20 +4608,20 @@
       <c r="M30">
         <v>3</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="7">
         <v>0.375</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O30" s="7">
         <v>0.75</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="7">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="31" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="6:17" x14ac:dyDescent="0.45">
       <c r="I31">
         <v>4</v>
       </c>
@@ -4613,20 +4637,20 @@
       <c r="M31">
         <v>4</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="7">
         <v>0.375</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="7">
         <v>0.75</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="17">
+      <c r="Q31" s="7">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="32" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="6:17" x14ac:dyDescent="0.45">
       <c r="I32">
         <v>31</v>
       </c>
@@ -4642,20 +4666,20 @@
       <c r="M32">
         <v>31</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="7">
         <v>0.375</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O32" s="7">
         <v>0.75</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32" s="7">
         <v>0.51388888888888895</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="Q32" s="7">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="10:13" x14ac:dyDescent="0.45">
       <c r="J33" t="s">
         <v>41</v>
       </c>
@@ -4669,7 +4693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="10:13" x14ac:dyDescent="0.45">
       <c r="J34" t="s">
         <v>41</v>
       </c>
@@ -4683,7 +4707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="10:13" x14ac:dyDescent="0.45">
       <c r="J35" t="s">
         <v>41</v>
       </c>
@@ -4697,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="10:13" x14ac:dyDescent="0.45">
       <c r="K36">
         <v>2022</v>
       </c>
@@ -4708,7 +4732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="10:13" x14ac:dyDescent="0.45">
       <c r="K37">
         <v>2022</v>
       </c>
@@ -4719,7 +4743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="10:13" x14ac:dyDescent="0.45">
       <c r="L38">
         <v>11</v>
       </c>
@@ -4727,12 +4751,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="10:13" x14ac:dyDescent="0.45">
       <c r="L39">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="10:13" x14ac:dyDescent="0.45">
       <c r="L40">
         <v>11</v>
       </c>

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(全体仕様).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(全体仕様).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-16635" yWindow="3060" windowWidth="14700" windowHeight="8970"/>
+    <workbookView xWindow="-16635" yWindow="3060" windowWidth="14700" windowHeight="8970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="全体仕様" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -294,12 +294,130 @@
     <t>status</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>申請</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attendance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請をするときは、ステータスがtrueの時はデフォルトから変化してる</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデルの設定で、時間のパターンを決定する</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>falseの時はそのままデフォルトで入ってるという→条件分岐</t>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ジョウケンブンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>save()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新していくことで</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値を変えていく</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">status </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請も勤怠も一意にする必要がある、だぶりたくない→UKの使用もしくはデフォルトを保存して更新して保存していく。</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +448,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -444,7 +568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,14 +590,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -483,6 +601,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,8 +623,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,7 +673,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s2077"/>
+                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s2079"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1227,15 +1354,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>598143</xdr:colOff>
+      <xdr:colOff>679786</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>86127</xdr:rowOff>
+      <xdr:rowOff>58912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>241788</xdr:colOff>
+      <xdr:colOff>323431</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>205153</xdr:rowOff>
+      <xdr:rowOff>177938</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1250,7 +1377,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3074643" y="4481234"/>
+          <a:off x="3156286" y="4454019"/>
           <a:ext cx="1684716" cy="2323383"/>
           <a:chOff x="464427" y="1635006"/>
           <a:chExt cx="1478921" cy="1591875"/>
@@ -3003,14 +3130,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>281630</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>97349</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3025,10 +3152,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3429000" y="1905000"/>
-          <a:ext cx="2339030" cy="2002349"/>
+          <a:off x="3429000" y="1228725"/>
+          <a:ext cx="2339030" cy="3028951"/>
           <a:chOff x="464427" y="1557222"/>
-          <a:chExt cx="1760952" cy="1860034"/>
+          <a:chExt cx="1760952" cy="1606394"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3112,8 +3239,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="464427" y="1955622"/>
-            <a:ext cx="1760952" cy="1461634"/>
+            <a:off x="464427" y="1955623"/>
+            <a:ext cx="1760952" cy="1207993"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3165,8 +3292,188 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>user_id FK</a:t>
-            </a:r>
+              <a:t>user_id  UK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>year UK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>month Uk</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>date UK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>status </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>startWork Integer </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>startWork </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>endWork Integer</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> startBreak Integer </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>endBreak Integer </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>startWork</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> Integer</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>endWork Integer</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>startBreak Integer</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>endBreak Integer</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -3180,66 +3487,6 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ceated_time(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>申請した時間</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>applyYear</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>applyMonth</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>applyDate</a:t>
-            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3248,16 +3495,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>294066</xdr:colOff>
+      <xdr:colOff>482664</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>237408</xdr:rowOff>
+      <xdr:rowOff>227883</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3272,10 +3519,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3409950" y="6248400"/>
-          <a:ext cx="1684716" cy="2323383"/>
-          <a:chOff x="464427" y="1635006"/>
-          <a:chExt cx="1478921" cy="1591875"/>
+          <a:off x="3581400" y="6248400"/>
+          <a:ext cx="1701864" cy="2313858"/>
+          <a:chOff x="614934" y="1635006"/>
+          <a:chExt cx="1493975" cy="1585349"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3291,7 +3538,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="466058" y="1635006"/>
+            <a:off x="641649" y="1635006"/>
             <a:ext cx="1467260" cy="356515"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3359,7 +3606,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="464427" y="1955623"/>
+            <a:off x="614934" y="1949097"/>
             <a:ext cx="1478921" cy="1271258"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3843,8 +4090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3971,7 +4218,7 @@
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3982,11 +4229,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4001,255 +4248,285 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -4257,36 +4534,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4296,25 +4543,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F16:Q40"/>
+  <dimension ref="C10:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="16" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.4">
+      <c r="C16" s="18"/>
       <c r="K16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C18" s="18"/>
       <c r="K18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
@@ -4346,7 +4624,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
       <c r="F20">
         <v>1</v>
       </c>
@@ -4365,20 +4646,20 @@
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="7">
         <v>0.375</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="7">
         <v>0.75</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="7">
         <v>0.5</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="7">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.4">
       <c r="F21">
         <v>2</v>
       </c>
@@ -4397,20 +4678,20 @@
       <c r="K21" t="b">
         <v>1</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="7">
         <v>0.41666666666666702</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="7">
         <v>0.79166666666666696</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="7">
         <v>0.54166666666666696</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O21" s="7">
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.4">
       <c r="G22" t="s">
         <v>28</v>
       </c>
@@ -4426,20 +4707,20 @@
       <c r="K22" t="b">
         <v>1</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="7">
         <v>0.45833333333333298</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="7">
         <v>0.83333333333333304</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="7">
         <v>0.58333333333333304</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O22" s="7">
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.4">
       <c r="G23" t="s">
         <v>28</v>
       </c>
@@ -4455,25 +4736,25 @@
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="7">
         <v>0</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="7">
         <v>0</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O23" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.4">
       <c r="F24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.4">
       <c r="F25">
         <v>3</v>
       </c>
@@ -4481,7 +4762,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
       <c r="I27" t="s">
         <v>26</v>
       </c>
@@ -4509,8 +4793,14 @@
       <c r="Q27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="R27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
       <c r="I28">
         <v>1</v>
       </c>
@@ -4526,20 +4816,23 @@
       <c r="M28">
         <v>1</v>
       </c>
-      <c r="N28" s="17">
-        <v>0.375</v>
-      </c>
-      <c r="O28" s="17">
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
         <v>0.75</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="7">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="R28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.4">
       <c r="I29">
         <v>2</v>
       </c>
@@ -4555,20 +4848,26 @@
       <c r="M29">
         <v>2</v>
       </c>
-      <c r="N29" s="17">
-        <v>0.375</v>
-      </c>
-      <c r="O29" s="17">
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
         <v>0.75</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="7">
         <v>0.50694444444444442</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="7">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="30" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="R29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
       <c r="I30">
         <v>3</v>
       </c>
@@ -4584,20 +4883,26 @@
       <c r="M30">
         <v>3</v>
       </c>
-      <c r="N30" s="17">
-        <v>0.375</v>
-      </c>
-      <c r="O30" s="17">
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
         <v>0.75</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="7">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="31" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="R30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
       <c r="I31">
         <v>4</v>
       </c>
@@ -4613,20 +4918,23 @@
       <c r="M31">
         <v>4</v>
       </c>
-      <c r="N31" s="17">
-        <v>0.375</v>
-      </c>
-      <c r="O31" s="17">
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
         <v>0.75</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="17">
+      <c r="Q31" s="7">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="32" spans="6:17" x14ac:dyDescent="0.4">
+      <c r="R31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.4">
       <c r="I32">
         <v>31</v>
       </c>
@@ -4642,20 +4950,26 @@
       <c r="M32">
         <v>31</v>
       </c>
-      <c r="N32" s="17">
-        <v>0.375</v>
-      </c>
-      <c r="O32" s="17">
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
         <v>0.75</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32" s="7">
         <v>0.51388888888888895</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="Q32" s="7">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="R32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
       <c r="J33" t="s">
         <v>41</v>
       </c>
@@ -4668,10 +4982,28 @@
       <c r="M33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.4">
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="K34">
         <v>2022</v>
@@ -4683,7 +5015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:18" x14ac:dyDescent="0.4">
       <c r="J35" t="s">
         <v>41</v>
       </c>
@@ -4697,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:18" x14ac:dyDescent="0.4">
       <c r="K36">
         <v>2022</v>
       </c>
@@ -4708,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.4">
       <c r="K37">
         <v>2022</v>
       </c>
@@ -4719,7 +5051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.4">
       <c r="L38">
         <v>11</v>
       </c>
@@ -4727,12 +5059,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.4">
       <c r="L39">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="10:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.4">
       <c r="L40">
         <v>11</v>
       </c>

--- a/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(全体仕様).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/クラス図/クラス図(全体仕様).xlsx
@@ -593,14 +593,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -610,6 +604,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,9 +625,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,7 +673,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s2079"/>
+                  <a14:cameraTool cellRange="[1]変更履歴!$A$1:$E$2" spid="_x0000_s2080"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3710,6 +3710,22 @@
               </a:rPr>
               <a:t> Integer</a:t>
             </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>UK</a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -3734,6 +3750,22 @@
               </a:rPr>
               <a:t> Integer</a:t>
             </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Uk</a:t>
+            </a:r>
           </a:p>
           <a:p>
             <a:pPr algn="l"/>
@@ -3745,16 +3777,59 @@
               </a:rPr>
               <a:t>user_id FK</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
+              <a:t>UK</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>date Integer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>UK </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>status</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -4218,7 +4293,7 @@
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -4229,11 +4304,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4248,285 +4323,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -4534,6 +4579,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4545,8 +4620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C10:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4572,19 +4647,19 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C15" s="18"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C16" s="18"/>
+      <c r="C16" s="8"/>
       <c r="K16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C17" s="18"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C18" s="18"/>
+      <c r="C18" s="8"/>
       <c r="K18" t="s">
         <v>37</v>
       </c>
@@ -4820,13 +4895,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P28" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="7">
-        <v>0.54166666666666663</v>
+        <v>0</v>
       </c>
       <c r="R28" t="b">
         <v>1</v>
@@ -4852,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P29" s="7">
-        <v>0.50694444444444442</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="7">
-        <v>0.54166666666666663</v>
+        <v>0</v>
       </c>
       <c r="R29" t="b">
         <v>1</v>
@@ -4887,13 +4962,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P30" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="7">
-        <v>0.54166666666666663</v>
+        <v>0</v>
       </c>
       <c r="R30" t="b">
         <v>1</v>
@@ -4922,13 +4997,13 @@
         <v>0</v>
       </c>
       <c r="O31" s="7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P31" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="7">
-        <v>0.54166666666666663</v>
+        <v>0</v>
       </c>
       <c r="R31" t="b">
         <v>1</v>
@@ -4954,13 +5029,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P32" s="7">
-        <v>0.51388888888888895</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="7">
-        <v>0.54166666666666663</v>
+        <v>0</v>
       </c>
       <c r="R32" t="b">
         <v>1</v>
